--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -549,10 +549,10 @@
         <v>0.19286</v>
       </c>
       <c r="I2">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J2">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.03663272841333334</v>
+        <v>0.1722650270366667</v>
       </c>
       <c r="R2">
-        <v>0.21979637048</v>
+        <v>1.03359016222</v>
       </c>
       <c r="S2">
-        <v>8.425652096599761E-05</v>
+        <v>0.0002321363028949218</v>
       </c>
       <c r="T2">
-        <v>9.319103489089854E-05</v>
+        <v>0.0002507835823060044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.19286</v>
       </c>
       <c r="I3">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J3">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>3.220917252300001</v>
+        <v>3.2209172523</v>
       </c>
       <c r="R3">
-        <v>28.98825527070001</v>
+        <v>28.9882552707</v>
       </c>
       <c r="S3">
-        <v>0.007408219200494555</v>
+        <v>0.004340357620704089</v>
       </c>
       <c r="T3">
-        <v>0.01229067387445277</v>
+        <v>0.007033521377537728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.19286</v>
       </c>
       <c r="I4">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J4">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.02604540013777778</v>
+        <v>0.01789781514888889</v>
       </c>
       <c r="R4">
-        <v>0.23440860124</v>
+        <v>0.16108033634</v>
       </c>
       <c r="S4">
-        <v>5.990530593341591E-05</v>
+        <v>2.411825957961539E-05</v>
       </c>
       <c r="T4">
-        <v>9.938644614184516E-05</v>
+        <v>3.908348324410898E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.19286</v>
       </c>
       <c r="I5">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J5">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>1.407713843996667</v>
+        <v>0.8400823133366666</v>
       </c>
       <c r="R5">
-        <v>8.446283063980001</v>
+        <v>5.04049388002</v>
       </c>
       <c r="S5">
-        <v>0.003237789707404369</v>
+        <v>0.001132055680134531</v>
       </c>
       <c r="T5">
-        <v>0.003581123100417112</v>
+        <v>0.001222992592255196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.19286</v>
       </c>
       <c r="I6">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J6">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>0.06615293002888889</v>
+        <v>0.1197788101888889</v>
       </c>
       <c r="R6">
-        <v>0.59537637026</v>
+        <v>1.0780092917</v>
       </c>
       <c r="S6">
-        <v>0.0001521539884512814</v>
+        <v>0.0001614083290190002</v>
       </c>
       <c r="T6">
-        <v>0.0002524324672557086</v>
+        <v>0.0002615611504573714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>0.19286</v>
       </c>
       <c r="I7">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J7">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.01826658489777778</v>
+        <v>0.00705233304888889</v>
       </c>
       <c r="R7">
-        <v>0.16439926408</v>
+        <v>0.06347099744</v>
       </c>
       <c r="S7">
-        <v>4.201376637991848E-05</v>
+        <v>9.50339455961819E-06</v>
       </c>
       <c r="T7">
-        <v>6.970332367845624E-05</v>
+        <v>1.540018925523634E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H8">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I8">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J8">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>3.298363589109</v>
+        <v>29.0272778385975</v>
       </c>
       <c r="R8">
-        <v>13.193454356436</v>
+        <v>116.10911135439</v>
       </c>
       <c r="S8">
-        <v>0.00758634840854754</v>
+        <v>0.03911580357585567</v>
       </c>
       <c r="T8">
-        <v>0.005593867007799303</v>
+        <v>0.02817195823659829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H9">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I9">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J9">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>290.0072325667276</v>
+        <v>542.736164072025</v>
       </c>
       <c r="R9">
-        <v>1740.043395400365</v>
+        <v>3256.41698443215</v>
       </c>
       <c r="S9">
-        <v>0.6670264959613476</v>
+        <v>0.7313659002197516</v>
       </c>
       <c r="T9">
-        <v>0.7377576090920398</v>
+        <v>0.7901157989777625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H10">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I10">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J10">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>2.345094214903</v>
+        <v>3.015846350055</v>
       </c>
       <c r="R10">
-        <v>14.070565289418</v>
+        <v>18.09507810033</v>
       </c>
       <c r="S10">
-        <v>0.00539379643404604</v>
+        <v>0.004064013652938956</v>
       </c>
       <c r="T10">
-        <v>0.005965751563400515</v>
+        <v>0.004390471846559411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H11">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I11">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J11">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>126.7487377553153</v>
+        <v>141.5568971601225</v>
       </c>
       <c r="R11">
-        <v>506.994951021261</v>
+        <v>566.2275886404899</v>
       </c>
       <c r="S11">
-        <v>0.2915264066491819</v>
+        <v>0.1907554616354782</v>
       </c>
       <c r="T11">
-        <v>0.2149598015060532</v>
+        <v>0.1373857726884283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H12">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I12">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J12">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>5.956324444584499</v>
+        <v>20.183161157775</v>
       </c>
       <c r="R12">
-        <v>35.737946667507</v>
+        <v>121.09896694665</v>
       </c>
       <c r="S12">
-        <v>0.01369974875425208</v>
+        <v>0.02719788509887745</v>
       </c>
       <c r="T12">
-        <v>0.01515246237937203</v>
+        <v>0.02938266428465977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H13">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I13">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J13">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>1.644699729826</v>
+        <v>1.18834353288</v>
       </c>
       <c r="R13">
-        <v>9.868198378956</v>
+        <v>7.13006119728</v>
       </c>
       <c r="S13">
-        <v>0.003782865302995471</v>
+        <v>0.001601356230206476</v>
       </c>
       <c r="T13">
-        <v>0.004183998204498453</v>
+        <v>0.001729991590936136</v>
       </c>
     </row>
   </sheetData>
